--- a/DataTable/RawTable/Scene.xlsx
+++ b/DataTable/RawTable/Scene.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Key</t>
   </si>
@@ -30,6 +30,51 @@
   </si>
   <si>
     <t>경로 파일 주소</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ConditionParameter</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>게임 플레이 외적인 씬</t>
+  </si>
+  <si>
+    <t>Explore</t>
+  </si>
+  <si>
+    <t>유저가 자유롭게 움직이며 상호작용 가능한 인게임 씬</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>몬스터와 전투를 하는 씬</t>
+  </si>
+  <si>
+    <t>몬스터에 대한 정보</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>#Desc</t>
+  </si>
+  <si>
+    <t>메인 메뉴</t>
+  </si>
+  <si>
+    <t>학교 현관</t>
+  </si>
+  <si>
+    <t>XXX와의 전투</t>
+  </si>
+  <si>
+    <t>인벤토리</t>
   </si>
 </sst>
 </file>
@@ -49,12 +94,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,13 +120,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -292,6 +357,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="25.38"/>
     <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="6" max="6" width="44.25"/>
+    <col customWidth="1" min="7" max="7" width="16.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -314,6 +381,44 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -341,6 +446,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -352,6 +463,12 @@
       <c r="C2" s="1">
         <v>100001.0</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -363,6 +480,12 @@
       <c r="C3" s="1">
         <v>100002.0</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -374,6 +497,12 @@
       <c r="C4" s="1">
         <v>100003.0</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -384,6 +513,12 @@
       </c>
       <c r="C5" s="1">
         <v>100004.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
